--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsimasten/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C24024-A0E0-6F43-982F-E42A362FC195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473175E-7048-A641-9320-42D1F7819ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
   <si>
     <t>name</t>
   </si>
@@ -135,28 +135,7 @@
     <t>auditor</t>
   </si>
   <si>
-    <t>Operator</t>
-  </si>
-  <si>
-    <t>system-operator</t>
-  </si>
-  <si>
-    <t>admin_panel_settings</t>
-  </si>
-  <si>
-    <t>operator</t>
-  </si>
-  <si>
-    <t>Third Party</t>
-  </si>
-  <si>
     <t>system-thirdparty</t>
-  </si>
-  <si>
-    <t>apps</t>
-  </si>
-  <si>
-    <t>thirdparty</t>
   </si>
   <si>
     <t>Module</t>
@@ -722,10 +701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,22 +851,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>0</v>
@@ -925,7 +904,10 @@
         <v>0</v>
       </c>
       <c r="I6" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>38</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -951,13 +933,16 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I7" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>38</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -968,22 +953,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
@@ -1003,22 +988,22 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
@@ -1027,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1038,16 +1023,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
@@ -1062,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1082,14 +1067,14 @@
         <v>60</v>
       </c>
       <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>61</v>
       </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>62</v>
-      </c>
       <c r="H11" s="3" t="b">
         <v>0</v>
       </c>
@@ -1097,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1108,31 +1093,28 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>64</v>
       </c>
-      <c r="E12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
       <c r="H12" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3" t="b">
         <v>0</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
       </c>
       <c r="K12" t="b">
         <v>1</v>
@@ -1143,16 +1125,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
         <v>66</v>
       </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>61</v>
       </c>
       <c r="F13" t="s">
         <v>12</v>
@@ -1167,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1187,13 +1169,13 @@
         <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3" t="b">
         <v>1</v>
@@ -1202,73 +1184,6 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="K16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1279,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1296,10 +1211,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,7 +1225,7 @@
         <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,7 +1236,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1329,10 +1244,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1340,10 +1255,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1354,7 +1269,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1365,7 +1280,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1373,10 +1288,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1384,10 +1299,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1395,10 +1310,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1409,7 +1324,7 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1417,10 +1332,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1428,10 +1343,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1442,29 +1357,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1499,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1517,10 +1410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
@@ -1548,7 +1441,7 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,7 +1452,7 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1567,10 +1460,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1578,10 +1471,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1592,7 +1485,7 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1603,7 +1496,7 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1611,10 +1504,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1622,10 +1515,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1633,10 +1526,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1647,7 +1540,7 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,10 +1548,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1666,10 +1559,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1680,29 +1573,7 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1712,10 +1583,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1730,13 +1601,13 @@
         <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1747,10 +1618,10 @@
         <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1761,10 +1632,10 @@
         <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1772,13 +1643,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1786,13 +1657,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1803,10 +1674,10 @@
         <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1817,10 +1688,10 @@
         <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1828,13 +1699,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1842,13 +1713,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1856,13 +1727,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1873,10 +1744,10 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1884,13 +1755,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1898,13 +1769,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1915,38 +1786,10 @@
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C16" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/backend.devsiruhay/modules/system/database/masters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473175E-7048-A641-9320-42D1F7819ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF1681-E5FA-644B-8B3A-3E5C130B1926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>administrator</t>
-  </si>
-  <si>
-    <t>backend</t>
   </si>
   <si>
     <t>Account Manajemen System</t>
@@ -294,14 +291,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -613,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -675,23 +672,20 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -720,13 +714,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -738,16 +732,16 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>7</v>
@@ -758,19 +752,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="3" t="b">
         <v>1</v>
@@ -787,22 +781,22 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="H3" s="3" t="b">
         <v>1</v>
@@ -819,22 +813,22 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
       </c>
       <c r="H4" s="3" t="b">
         <v>0</v>
@@ -851,22 +845,22 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>38</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
       <c r="F5" t="s">
         <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="3" t="b">
         <v>0</v>
@@ -883,23 +877,23 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>43</v>
-      </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
@@ -907,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -918,23 +912,23 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>46</v>
       </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
       </c>
@@ -942,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -953,23 +947,23 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
       </c>
@@ -977,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -988,23 +982,23 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
         <v>52</v>
       </c>
-      <c r="C9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
       </c>
@@ -1012,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1023,23 +1017,23 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
-      </c>
       <c r="H10" s="3" t="b">
         <v>0</v>
       </c>
@@ -1047,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1058,23 +1052,23 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" s="3" t="b">
         <v>0</v>
       </c>
@@ -1082,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1093,22 +1087,22 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
         <v>63</v>
-      </c>
-      <c r="E12" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>64</v>
       </c>
       <c r="H12" s="3" t="b">
         <v>1</v>
@@ -1125,23 +1119,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>68</v>
-      </c>
       <c r="H13" s="3" t="b">
         <v>0</v>
       </c>
@@ -1149,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1160,22 +1154,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>70</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="3" t="b">
         <v>1</v>
@@ -1208,13 +1202,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1222,10 +1216,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1233,10 +1227,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1244,10 +1238,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1255,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1266,10 +1260,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1277,10 +1271,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,10 +1282,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1299,10 +1293,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1310,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1321,10 +1315,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,10 +1326,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1343,10 +1337,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1354,10 +1348,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1381,10 +1375,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,7 +1386,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1424,13 +1418,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1438,10 +1432,10 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1449,10 +1443,10 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1460,10 +1454,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1471,10 +1465,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1482,10 +1476,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1493,10 +1487,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1504,10 +1498,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1515,10 +1509,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1526,10 +1520,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1537,10 +1531,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1548,10 +1542,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1559,10 +1553,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1570,10 +1564,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +1579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1598,16 +1592,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1615,13 +1609,13 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1629,13 +1623,13 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1643,13 +1637,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1657,13 +1651,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1671,13 +1665,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1685,13 +1679,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1699,13 +1693,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1713,13 +1707,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1727,13 +1721,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1741,13 +1735,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1755,13 +1749,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1769,13 +1763,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1783,13 +1777,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FF1681-E5FA-644B-8B3A-3E5C130B1926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F4544A-CCEC-114A-996A-1E4DC5349FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -120,18 +120,9 @@
     <t>role</t>
   </si>
   <si>
-    <t>Auditor</t>
-  </si>
-  <si>
-    <t>system-auditor</t>
-  </si>
-  <si>
     <t>verified_user</t>
   </si>
   <si>
-    <t>auditor</t>
-  </si>
-  <si>
     <t>system-thirdparty</t>
   </si>
   <si>
@@ -265,18 +256,41 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>view, show, update, delete, restore, destroy</t>
+  </si>
+  <si>
+    <t>Oauth</t>
+  </si>
+  <si>
+    <t>oauth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -322,16 +336,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -610,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -698,7 +714,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -812,23 +828,23 @@
       <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
+      <c r="B4" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D4" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="G4" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="H4" s="3" t="b">
         <v>0</v>
@@ -845,16 +861,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -877,23 +893,23 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
       <c r="H6" s="3" t="b">
         <v>0</v>
       </c>
@@ -901,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K6" t="b">
         <v>1</v>
@@ -912,23 +928,23 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
       <c r="H7" s="3" t="b">
         <v>0</v>
       </c>
@@ -936,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7" t="b">
         <v>1</v>
@@ -947,23 +963,23 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
         <v>47</v>
       </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
       <c r="H8" s="3" t="b">
         <v>0</v>
       </c>
@@ -971,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K8" t="b">
         <v>1</v>
@@ -982,23 +998,23 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>51</v>
       </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>54</v>
-      </c>
       <c r="H9" s="3" t="b">
         <v>0</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K9" t="b">
         <v>1</v>
@@ -1017,22 +1033,22 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
         <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="3" t="b">
         <v>0</v>
@@ -1041,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K10" t="b">
         <v>1</v>
@@ -1052,22 +1068,22 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H11" s="3" t="b">
         <v>0</v>
@@ -1076,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K11" t="b">
         <v>1</v>
@@ -1087,22 +1103,22 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H12" s="3" t="b">
         <v>1</v>
@@ -1119,23 +1135,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
-      </c>
       <c r="H13" s="3" t="b">
         <v>0</v>
       </c>
@@ -1143,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K13" t="b">
         <v>1</v>
@@ -1154,22 +1170,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
       </c>
       <c r="H14" s="3" t="b">
         <v>1</v>
@@ -1190,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1205,10 +1221,10 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1219,7 +1235,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1230,7 +1246,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1238,10 +1254,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1249,10 +1265,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1260,10 +1276,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1271,10 +1287,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1282,10 +1298,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1293,10 +1309,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1304,10 +1320,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1315,10 +1331,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1326,10 +1342,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1337,10 +1353,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1348,10 +1364,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1386,7 +1402,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1421,7 +1437,7 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
@@ -1435,7 +1451,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1446,7 +1462,7 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1454,10 +1470,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1465,10 +1481,10 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1476,10 +1492,10 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1487,10 +1503,10 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1498,10 +1514,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1509,10 +1525,10 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1520,10 +1536,10 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1531,10 +1547,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1542,10 +1558,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1553,10 +1569,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,10 +1580,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1596,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1595,13 +1611,13 @@
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1612,10 +1628,10 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1626,10 +1642,10 @@
         <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1637,13 +1653,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1651,13 +1667,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1665,13 +1681,13 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1679,13 +1695,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1693,13 +1709,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1707,13 +1723,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -1721,13 +1737,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1735,13 +1751,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1749,13 +1765,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1763,13 +1779,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1777,13 +1793,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/database/masters/base-seeder.xlsx
+++ b/database/masters/base-seeder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/monoland/Herd/devsiruhay/modules/system/database/masters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F4544A-CCEC-114A-996A-1E4DC5349FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5262D1CC-F59C-104A-9206-BE11A920C84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="module" sheetId="2" r:id="rId1"/>
@@ -264,19 +264,26 @@
     <t>Oauth</t>
   </si>
   <si>
-    <t>oauth</t>
+    <t>thirdparty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,16 +343,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -713,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -834,7 +842,7 @@
       <c r="C4" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E4" t="s">
@@ -843,7 +851,7 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="8" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="3" t="b">
@@ -1206,7 +1214,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
